--- a/DOM_Banner/output/dept_banner/Cameron Thompson_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Cameron Thompson_2023.xlsx
@@ -1221,7 +1221,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2388730008", "https://openalex.org/W2224319365", "https://openalex.org/W2980453143", "https://openalex.org/W377899687", "https://openalex.org/W2389055047", "https://openalex.org/W2066747782", "https://openalex.org/W4285097448", "https://openalex.org/W105723274", "https://openalex.org/W2518309888", "https://openalex.org/W182989684")</t>
+          <t>c("https://openalex.org/W2384274503", "https://openalex.org/W2410163895", "https://openalex.org/W2386504342", "https://openalex.org/W2377136501", "https://openalex.org/W2412005057", "https://openalex.org/W2752085855", "https://openalex.org/W2394784562", "https://openalex.org/W4310603196", "https://openalex.org/W2351826232", "https://openalex.org/W80314699")</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -2147,22 +2147,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S66441642</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0002-9270</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Cameron Thompson_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Cameron Thompson_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,24 +452,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Devon Energy; Devon Energy; Devon Energy; Devon Energy; Devon Energy; Devon Energy; Devon Energy; Devon Energy; Devon Energy; Devon Energy; Consulting Geochemist; Devon Energy; Devon Energy; Devon Energy; Devon Energy; Devon Energy</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4317790770</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Redefining Recoverable Reserves in the Eagle Ford: Refracs and Infill Development Lessons Learned From the Hydraulic Fracturing Test Site 1 (HFTS) Phase 3</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -472,14 +477,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.2118/212340-ms</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.2118/212340-ms</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Schwartz/Reisman Emergency Medicine Institute, Toronto, ON, Canada; Schwartz/Reisman Emergency Medicine Institute, Toronto, ON, Canada; Schwartz/Reisman Emergency Medicine Institute, Toronto, ON, Canada; Schwartz/Reisman Emergency Medicine Institute, Toronto, ON, Canada</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4366782335</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Application of the Modified Early Obstetrical Warning System (MEOWS) in postpartum patients in the emergency department</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-04-23</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Canadian Journal of Emergency Medicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Springer Nature</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s43678-023-00500-7</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37088841</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s43678-023-00500-7</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367602705</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Food literacy, food environments and monitoring and surveillance in public health</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-04-27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Population medicine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>EU European Publishing</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.18332/popmed/164911</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by-nd</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.18332/popmed/164911</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Thomas Jefferson University, Seattle, WA; 125 Cambridgepark Drive, Suite 500, Cambridge, MA; TriNetX, Cambridge, MA; TriNetX, Cambridge, MA; TriNetX, Cambridge, MA; TriNetX, Cambridge, MA; TriNetX, Cambridge, MA; TriNetX, Cambridge, MA; TriNetX, Cambridge, MA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379284687</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Deriving breast cancer chemotherapy patterns from real-world data.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e13586</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e13586</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385304270</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>P24-122-23 Development, Validation and Item Reduction of a Food Literacy Questionnaire (IFLQ-19) With Australian Adults</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Current Developments in Nutrition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.cdnut.2023.100406</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.cdnut.2023.100406</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,24 +887,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385547394</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Integrated Numerical Modeling of a Huff-n-Puff Pilot in Eagle Ford</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -882,14 +912,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>https://doi.org/10.15530/urtec-2023-3870693</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.15530/urtec-2023-3870693</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,80 +969,85 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Charles Martineau, Zissis Poulos, Yao Wu, Courtney Thompson, Maryam Haghighi, Jinbo Yuan, John C. Hull</t>
+          <t>Kelly E. Courtney, Rachel Baca, Courtney Thompson, Gianna Andrade, Neal Doran, Aaron Jacobson, Thomas T. Liu, Joanna Jacobus</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387570445</t>
+          <t>Department of Psychiatry, University of California San Diego, 9500 Gilman Drive, MC 0405, La Jolla, CA, 92093, USA.; Department of Psychiatry, University of California San Diego, 9500 Gilman Drive, MC 0405, La Jolla, CA, 92093, USA.; Department of Psychiatry, University of California San Diego, 9500 Gilman Drive, MC 0405, La Jolla, CA, 92093, USA.; Department of Psychiatry, University of California San Diego, 9500 Gilman Drive, MC 0405, La Jolla, CA, 92093, USA.; Department of Psychiatry, University of California San Diego, 9500 Gilman Drive, MC 0405, La Jolla, CA, 92093, USA.; Veterans Affairs San Diego Healthcare System, La Jolla, CA, USA.; Department of Radiology, University of California San Diego, La Jolla, CA, USA.; Department of Radiology, University of California San Diego, La Jolla, CA, USA.; Department of Psychiatry, University of California San Diego, La Jolla, USA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Narrative Monetary Policy Uncertainty</t>
+          <t>https://openalex.org/W4387729445</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>The effects of nicotine use during adolescence and young adulthood on gray matter cerebral blood flow estimates</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Social Science Research Network</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RELX Group (Netherlands)</t>
+          <t>Brain Imaging and Behavior</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.4573829</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1007/s11682-023-00810-5</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.4573829</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37851272</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s11682-023-00810-5</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1016,80 +1056,85 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kelly E. Courtney, Rachel Baca, Courtney Thompson, Gianna Andrade, Neal Doran, Aaron Jacobson, Thomas T. Liu, Joanna Jacobus</t>
+          <t>Richard Trieu, Joseph Kim, Shivanand Bomman, Courtney Thompson</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387729445</t>
+          <t>University of Arizona–Banner University Medical Center, Tucson, AZ;; University of Arizona–Banner University Medical Center, Tucson, AZ;; University of Arizona–Banner University Medical Center, Tucson, AZ;; University of Arizona College of Medicine, Tucson, AZ.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>The effects of nicotine use during adolescence and young adulthood on gray matter cerebral blood flow estimates</t>
+          <t>https://openalex.org/W4387733538</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>S3027 Ethanolamine Oleate Treatment of Intestinal Phlebectasias</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Brain Imaging and Behavior</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Springer Science+Business Media</t>
+          <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s11682-023-00810-5</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.14309/01.ajg.0000961748.70860.4c</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>hybrid</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37851272</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s11682-023-00810-5</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14309/01.ajg.0000961748.70860.4c</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,80 +1143,85 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Richard Trieu, Joseph Kim, Shivanand Bomman, Courtney Thompson</t>
+          <t>Brandon Witten, Muhammad Akbar Shahid, Aws Alameri, Brendan Andres, Rolando Leal, Courtney Thompson</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387733538</t>
+          <t>*Presenter; University of Arizona College of Medicine, Tucson, AZ.; *Presenter; University of Arizona College of Medicine, Tucson, AZ.; *Presenter; University of Arizona College of Medicine, Tucson, AZ.; *Presenter; University of Arizona College of Medicine, Tucson, AZ.; *Presenter; University of Arizona College of Medicine, Tucson, AZ.; *Presenter; University of Arizona College of Medicine, Tucson, AZ.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>S3027 Ethanolamine Oleate Treatment of Intestinal Phlebectasias</t>
+          <t>https://openalex.org/W4387734135</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>S2686 Ectopic Enigma: Two Cases of Pancreatic Heterotopia in the Esophagus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000961748.70860.4c</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.14309/01.ajg.0000960384.08241.ae</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000961748.70860.4c</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14309/01.ajg.0000960384.08241.ae</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,80 +1230,85 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brandon Witten, Muhammad Akbar Shahid, Aws Alameri, Brendan Andres, Rolando Leal, Courtney Thompson</t>
+          <t>Charles Martineau, Zissis Poulos, Yao Wu, Courtney Thompson, Maryam Haghighi, Jinbo Yuan, John C. Hull</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387734135</t>
+          <t>University of Toronto - Rotman School of Management and UTSC Management; University of Toronto - Rotman School of Management; University of Toronto; University of Toronto; Government of Canada - Bank of Canada; University of Toronto; University of Toronto - Rotman School of Management</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>S2686 Ectopic Enigma: Two Cases of Pancreatic Heterotopia in the Esophagus</t>
+          <t>https://openalex.org/W4387570445</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Narrative Monetary Policy Uncertainty</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The American Journal of Gastroenterology</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Social Science Research Network</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14309/01.ajg.0000960384.08241.ae</t>
+          <t>RELX Group (Netherlands)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.2139/ssrn.4573829</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000960384.08241.ae</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2139/ssrn.4573829</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,24 +1322,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Guy's &amp; St Thomas' NHS Foundation Trust, London, United Kingdom; Guy's &amp; St Thomas' NHS Foundation Trust, London, United Kingdom; Avalyn Pharma Inc., Seattle, Washington, United States; Avalyn Pharma Inc., Seattle, Washington, United States; Avalyn Pharma Inc., Seattle, Washington, United States; Avalyn Pharma Inc., Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387981390</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Nebulised pirfenidone in non-idiopathic pulmonary fibrosis (IPF) progressive pulmonary fibrosis (PPF): first look at FVC data</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1292,14 +1347,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1183/13993003.congress-2023.pa405</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1307,35 +1362,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1183/13993003.congress-2023.pa405</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
